--- a/intelligentLogisticBackend/data/stores.xlsx
+++ b/intelligentLogisticBackend/data/stores.xlsx
@@ -477,11 +477,7 @@
       <c r="C2" t="n">
         <v>23.13795005525625</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>广东省公安厅, 东濠涌高架, 黄华塘, 建设街道, 越秀区, 广州市, 广东省, 510060, 中国</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>广东省广州市越秀区洪桥街道越秀公园-东秀儿童乐园</t>
@@ -505,11 +501,7 @@
       <c r="C3" t="n">
         <v>37.81124947556329</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>武邑县, 衡水市, 河北省, 053400, 中国</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>河北省衡水市武邑县武邑镇鸿鼎蓝湾</t>
@@ -533,11 +525,7 @@
       <c r="C4" t="n">
         <v>30.57754668113553</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>锦江区, 成都市, 四川省, 610042, 中国</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>四川省成都市武侯区桂溪街道锦烨路成都高新技术产业开发区(南区)</t>
@@ -561,11 +549,7 @@
       <c r="C5" t="n">
         <v>30.84691962925172</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>石鼓, 宣城市, 安徽省, 中国</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>安徽省宣城市广德市誓节镇036县道</t>
